--- a/Players.xlsx
+++ b/Players.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jayavignesh\Documents\UiPath\Screen_Scraping_API\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A3DCB6-8C82-4D81-B90F-6BB9783E4B24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B02D4B5-129B-4BD8-8806-3C932C054338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="andersjensenorg" sheetId="3" r:id="rId1"/>
     <sheet name="1. Players" sheetId="1" r:id="rId2"/>
-    <sheet name="2. Players" sheetId="2" r:id="rId3"/>
+    <sheet name="Player_2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="157">
   <si>
     <t>Advanced API Web Scraping in UiPath</t>
   </si>
@@ -112,91 +112,400 @@
     <t>Sidney Crosby</t>
   </si>
   <si>
+    <t>Pittsburgh Penguins</t>
+  </si>
+  <si>
+    <t>1987-08-07</t>
+  </si>
+  <si>
+    <t>Cole Harbour</t>
+  </si>
+  <si>
+    <t>NS</t>
+  </si>
+  <si>
+    <t>CAN</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>5' 11"</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>Center</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Success</t>
+  </si>
+  <si>
     <t>Connor McDavid</t>
   </si>
   <si>
+    <t>Edmonton Oilers</t>
+  </si>
+  <si>
+    <t>1997-01-13</t>
+  </si>
+  <si>
+    <t>Richmond Hill</t>
+  </si>
+  <si>
+    <t>ON</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>6' 1"</t>
+  </si>
+  <si>
+    <t>193</t>
+  </si>
+  <si>
     <t>Auston Matthews</t>
   </si>
   <si>
+    <t>Toronto Maple Leafs</t>
+  </si>
+  <si>
+    <t>1997-09-17</t>
+  </si>
+  <si>
+    <t>San Ramon</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>6' 3"</t>
+  </si>
+  <si>
+    <t>205</t>
+  </si>
+  <si>
     <t>Nathan MacKinnon</t>
   </si>
   <si>
+    <t>Colorado Avalanche</t>
+  </si>
+  <si>
+    <t>1995-09-01</t>
+  </si>
+  <si>
+    <t>Halifax</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>6' 0"</t>
+  </si>
+  <si>
     <t>Leon Draisaitl</t>
   </si>
   <si>
+    <t>1995-10-27</t>
+  </si>
+  <si>
+    <t>Cologne</t>
+  </si>
+  <si>
+    <t>DEU</t>
+  </si>
+  <si>
+    <t>6' 2"</t>
+  </si>
+  <si>
+    <t>208</t>
+  </si>
+  <si>
+    <t>Player is not available : Object reference not set to an instance of an object.</t>
+  </si>
+  <si>
     <t>Patrice Bergeron</t>
   </si>
   <si>
+    <t>1985-07-24</t>
+  </si>
+  <si>
+    <t>L'Ancienne-Lorette</t>
+  </si>
+  <si>
+    <t>QC</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
     <t>Patrick Kane</t>
   </si>
   <si>
+    <t>Chicago Blackhawks</t>
+  </si>
+  <si>
+    <t>1988-11-19</t>
+  </si>
+  <si>
+    <t>Buffalo</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>5' 10"</t>
+  </si>
+  <si>
+    <t>177</t>
+  </si>
+  <si>
+    <t>Right Wing</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
     <t>David Pastrnak</t>
   </si>
   <si>
+    <t>Boston Bruins</t>
+  </si>
+  <si>
+    <t>1996-05-25</t>
+  </si>
+  <si>
+    <t>Havirov</t>
+  </si>
+  <si>
+    <t>CZE</t>
+  </si>
+  <si>
     <t>Victor Hedman</t>
   </si>
   <si>
+    <t>Tampa Bay Lightning</t>
+  </si>
+  <si>
+    <t>1990-12-18</t>
+  </si>
+  <si>
+    <t>Ornskoldsvik</t>
+  </si>
+  <si>
+    <t>SWE</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>6' 6"</t>
+  </si>
+  <si>
+    <t>241</t>
+  </si>
+  <si>
+    <t>Defenseman</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
     <t>John Tavares</t>
   </si>
   <si>
+    <t>1990-09-20</t>
+  </si>
+  <si>
+    <t>Mississauga</t>
+  </si>
+  <si>
+    <t>211</t>
+  </si>
+  <si>
     <t>Patrick Laine</t>
   </si>
   <si>
+    <t>Columbus Blue Jackets</t>
+  </si>
+  <si>
+    <t>1998-04-19</t>
+  </si>
+  <si>
+    <t>Tampere</t>
+  </si>
+  <si>
+    <t>FIN</t>
+  </si>
+  <si>
+    <t>6' 5"</t>
+  </si>
+  <si>
+    <t>216</t>
+  </si>
+  <si>
+    <t>Left Wing</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
     <t>Steven Stamkos</t>
   </si>
   <si>
+    <t>1990-02-07</t>
+  </si>
+  <si>
+    <t>Markham</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
     <t>Jack Eichel</t>
   </si>
   <si>
+    <t>Vegas Golden Knights</t>
+  </si>
+  <si>
+    <t>1996-10-28</t>
+  </si>
+  <si>
+    <t>North Chelmsford</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>213</t>
+  </si>
+  <si>
     <t>Roman Josi</t>
   </si>
   <si>
+    <t>Nashville Predators</t>
+  </si>
+  <si>
+    <t>1990-06-01</t>
+  </si>
+  <si>
+    <t>Bern</t>
+  </si>
+  <si>
+    <t>CHE</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
     <t>Brayden Point</t>
   </si>
   <si>
+    <t>1996-03-13</t>
+  </si>
+  <si>
+    <t>Calgary</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>183</t>
+  </si>
+  <si>
     <t>Brad Marchand</t>
   </si>
   <si>
+    <t>1988-05-11</t>
+  </si>
+  <si>
+    <t>5' 9"</t>
+  </si>
+  <si>
+    <t>182</t>
+  </si>
+  <si>
     <t>Tuukka Rask</t>
   </si>
   <si>
+    <t>1987-03-10</t>
+  </si>
+  <si>
+    <t>Savonlinna</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>Goalie</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
     <t>Connor Hellebuyck</t>
   </si>
   <si>
+    <t>Winnipeg Jets</t>
+  </si>
+  <si>
+    <t>1993-05-19</t>
+  </si>
+  <si>
+    <t>Commerce</t>
+  </si>
+  <si>
+    <t>MI</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>6' 4"</t>
+  </si>
+  <si>
+    <t>207</t>
+  </si>
+  <si>
     <t>Ryan O'Reilly</t>
   </si>
   <si>
-    <t>birthDate</t>
-  </si>
-  <si>
-    <t>birthCity</t>
-  </si>
-  <si>
-    <t>birthStateProvince</t>
-  </si>
-  <si>
-    <t>birthCountry</t>
-  </si>
-  <si>
-    <t>currentAge</t>
-  </si>
-  <si>
-    <t>weight</t>
-  </si>
-  <si>
-    <t>height</t>
-  </si>
-  <si>
-    <t>shootsCatches</t>
-  </si>
-  <si>
-    <t>rosterStatus</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>Code</t>
+    <t>St. Louis Blues</t>
+  </si>
+  <si>
+    <t>1991-02-07</t>
+  </si>
+  <si>
+    <t>Clinton</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CAN</t>
+  </si>
+  <si>
+    <t>Left</t>
+  </si>
+  <si>
+    <t>Found Player</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> USA</t>
   </si>
 </sst>
 </file>
@@ -258,7 +567,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -274,6 +583,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF003BE1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -342,8 +657,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -356,12 +677,7 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -645,199 +961,199 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2 B2:C2"/>
+      <selection activeCell="B2" sqref="B2 B2 B2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="46" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="9.109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="46" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="3"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
+      <c r="A1" s="5"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
     </row>
     <row r="2" spans="1:3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2"/>
-      <c r="B2" s="11" t="s">
+      <c r="A2" s="4"/>
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="12"/>
+      <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="4"/>
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="4"/>
+      <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="4"/>
+      <c r="B5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="4"/>
+      <c r="B6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="7" t="s">
+      <c r="A7" s="4"/>
+      <c r="B7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="8"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="10"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="9"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="11"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="9"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="11"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="8"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="10"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="8"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="10"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="10"/>
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="12"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="8"/>
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="10"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="9"/>
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="11"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="9"/>
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -857,57 +1173,59 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5546875" customWidth="1"/>
-    <col min="3" max="5" width="9.109375" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16.77734375" customWidth="1"/>
     <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="13" t="s">
         <v>23</v>
       </c>
     </row>
@@ -918,37 +1236,199 @@
       <c r="B2">
         <v>8471675</v>
       </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B3">
         <v>8478402</v>
       </c>
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="B4">
         <v>8479318</v>
       </c>
+      <c r="C4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="B5">
         <v>8477492</v>
       </c>
+      <c r="C5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="B6">
         <v>8477934</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I6" t="s">
+        <v>63</v>
+      </c>
+      <c r="J6" t="s">
+        <v>64</v>
+      </c>
+      <c r="K6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -958,117 +1438,561 @@
       <c r="B7">
         <v>1234567</v>
       </c>
+      <c r="M7" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="B8">
         <v>8470638</v>
       </c>
+      <c r="D8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" t="s">
+        <v>70</v>
+      </c>
+      <c r="K8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" t="s">
+        <v>34</v>
+      </c>
+      <c r="M8" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="B9">
         <v>8474141</v>
       </c>
+      <c r="C9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" t="s">
+        <v>76</v>
+      </c>
+      <c r="I9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J9" t="s">
+        <v>78</v>
+      </c>
+      <c r="K9" t="s">
+        <v>79</v>
+      </c>
+      <c r="L9" t="s">
+        <v>80</v>
+      </c>
+      <c r="M9" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="B10">
         <v>8477956</v>
       </c>
+      <c r="C10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" t="s">
+        <v>84</v>
+      </c>
+      <c r="G10" t="s">
+        <v>85</v>
+      </c>
+      <c r="H10" t="s">
+        <v>57</v>
+      </c>
+      <c r="I10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" t="s">
+        <v>70</v>
+      </c>
+      <c r="K10" t="s">
+        <v>79</v>
+      </c>
+      <c r="L10" t="s">
+        <v>80</v>
+      </c>
+      <c r="M10" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="B11">
         <v>8475167</v>
       </c>
+      <c r="C11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H11" t="s">
+        <v>91</v>
+      </c>
+      <c r="I11" t="s">
+        <v>92</v>
+      </c>
+      <c r="J11" t="s">
+        <v>93</v>
+      </c>
+      <c r="K11" t="s">
+        <v>94</v>
+      </c>
+      <c r="L11" t="s">
+        <v>95</v>
+      </c>
+      <c r="M11" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="B12">
         <v>8475166</v>
       </c>
+      <c r="C12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" t="s">
+        <v>97</v>
+      </c>
+      <c r="E12" t="s">
+        <v>98</v>
+      </c>
+      <c r="F12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" t="s">
+        <v>91</v>
+      </c>
+      <c r="I12" t="s">
+        <v>42</v>
+      </c>
+      <c r="J12" t="s">
+        <v>99</v>
+      </c>
+      <c r="K12" t="s">
+        <v>33</v>
+      </c>
+      <c r="L12" t="s">
+        <v>34</v>
+      </c>
+      <c r="M12" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="B13">
         <v>8479339</v>
       </c>
+      <c r="C13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" t="s">
+        <v>102</v>
+      </c>
+      <c r="E13" t="s">
+        <v>103</v>
+      </c>
+      <c r="G13" t="s">
+        <v>104</v>
+      </c>
+      <c r="H13" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13" t="s">
+        <v>105</v>
+      </c>
+      <c r="J13" t="s">
+        <v>106</v>
+      </c>
+      <c r="K13" t="s">
+        <v>107</v>
+      </c>
+      <c r="L13" t="s">
+        <v>108</v>
+      </c>
+      <c r="M13" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>109</v>
       </c>
       <c r="B14">
         <v>8474564</v>
       </c>
+      <c r="C14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" t="s">
+        <v>110</v>
+      </c>
+      <c r="E14" t="s">
+        <v>111</v>
+      </c>
+      <c r="F14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" t="s">
+        <v>112</v>
+      </c>
+      <c r="I14" t="s">
+        <v>42</v>
+      </c>
+      <c r="J14" t="s">
+        <v>43</v>
+      </c>
+      <c r="K14" t="s">
+        <v>33</v>
+      </c>
+      <c r="L14" t="s">
+        <v>34</v>
+      </c>
+      <c r="M14" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>113</v>
       </c>
       <c r="B15">
         <v>8478403</v>
       </c>
+      <c r="C15" t="s">
+        <v>114</v>
+      </c>
+      <c r="D15" t="s">
+        <v>115</v>
+      </c>
+      <c r="E15" t="s">
+        <v>116</v>
+      </c>
+      <c r="F15" t="s">
+        <v>117</v>
+      </c>
+      <c r="G15" t="s">
+        <v>49</v>
+      </c>
+      <c r="H15" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15" t="s">
+        <v>63</v>
+      </c>
+      <c r="J15" t="s">
+        <v>118</v>
+      </c>
+      <c r="K15" t="s">
+        <v>33</v>
+      </c>
+      <c r="L15" t="s">
+        <v>34</v>
+      </c>
+      <c r="M15" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>119</v>
       </c>
       <c r="B16">
         <v>8474600</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>120</v>
+      </c>
+      <c r="D16" t="s">
+        <v>121</v>
+      </c>
+      <c r="E16" t="s">
+        <v>122</v>
+      </c>
+      <c r="G16" t="s">
+        <v>123</v>
+      </c>
+      <c r="H16" t="s">
+        <v>112</v>
+      </c>
+      <c r="I16" t="s">
+        <v>42</v>
+      </c>
+      <c r="J16" t="s">
+        <v>124</v>
+      </c>
+      <c r="K16" t="s">
+        <v>94</v>
+      </c>
+      <c r="L16" t="s">
+        <v>95</v>
+      </c>
+      <c r="M16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>125</v>
       </c>
       <c r="B17">
         <v>8478010</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" t="s">
+        <v>126</v>
+      </c>
+      <c r="E17" t="s">
+        <v>127</v>
+      </c>
+      <c r="F17" t="s">
+        <v>128</v>
+      </c>
+      <c r="G17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" t="s">
+        <v>57</v>
+      </c>
+      <c r="I17" t="s">
+        <v>77</v>
+      </c>
+      <c r="J17" t="s">
+        <v>129</v>
+      </c>
+      <c r="K17" t="s">
+        <v>33</v>
+      </c>
+      <c r="L17" t="s">
+        <v>34</v>
+      </c>
+      <c r="M17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>130</v>
       </c>
       <c r="B18">
         <v>8473419</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" t="s">
+        <v>131</v>
+      </c>
+      <c r="E18" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" t="s">
+        <v>30</v>
+      </c>
+      <c r="I18" t="s">
+        <v>132</v>
+      </c>
+      <c r="J18" t="s">
+        <v>133</v>
+      </c>
+      <c r="K18" t="s">
+        <v>107</v>
+      </c>
+      <c r="L18" t="s">
+        <v>108</v>
+      </c>
+      <c r="M18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>134</v>
       </c>
       <c r="B19">
         <v>8471695</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" t="s">
+        <v>135</v>
+      </c>
+      <c r="E19" t="s">
+        <v>136</v>
+      </c>
+      <c r="G19" t="s">
+        <v>104</v>
+      </c>
+      <c r="H19" t="s">
+        <v>137</v>
+      </c>
+      <c r="I19" t="s">
+        <v>51</v>
+      </c>
+      <c r="J19" t="s">
+        <v>138</v>
+      </c>
+      <c r="K19" t="s">
+        <v>139</v>
+      </c>
+      <c r="L19" t="s">
+        <v>140</v>
+      </c>
+      <c r="M19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>141</v>
       </c>
       <c r="B20">
         <v>8476945</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>142</v>
+      </c>
+      <c r="D20" t="s">
+        <v>143</v>
+      </c>
+      <c r="E20" t="s">
+        <v>144</v>
+      </c>
+      <c r="F20" t="s">
+        <v>145</v>
+      </c>
+      <c r="G20" t="s">
+        <v>49</v>
+      </c>
+      <c r="H20" t="s">
+        <v>146</v>
+      </c>
+      <c r="I20" t="s">
+        <v>147</v>
+      </c>
+      <c r="J20" t="s">
+        <v>148</v>
+      </c>
+      <c r="K20" t="s">
+        <v>139</v>
+      </c>
+      <c r="L20" t="s">
+        <v>140</v>
+      </c>
+      <c r="M20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>149</v>
       </c>
       <c r="B21">
         <v>8475158</v>
+      </c>
+      <c r="C21" t="s">
+        <v>150</v>
+      </c>
+      <c r="D21" t="s">
+        <v>151</v>
+      </c>
+      <c r="E21" t="s">
+        <v>152</v>
+      </c>
+      <c r="F21" t="s">
+        <v>40</v>
+      </c>
+      <c r="G21" t="s">
+        <v>29</v>
+      </c>
+      <c r="H21" t="s">
+        <v>91</v>
+      </c>
+      <c r="I21" t="s">
+        <v>42</v>
+      </c>
+      <c r="J21" t="s">
+        <v>148</v>
+      </c>
+      <c r="K21" t="s">
+        <v>33</v>
+      </c>
+      <c r="L21" t="s">
+        <v>34</v>
+      </c>
+      <c r="M21" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1080,57 +2004,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45FE5027-3800-4DA3-8D1F-FBA25384503D}">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5546875" customWidth="1"/>
-    <col min="3" max="5" width="9.109375" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.77734375" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" customWidth="1"/>
+    <col min="6" max="6" width="17.109375" customWidth="1"/>
+    <col min="7" max="7" width="12.88671875" customWidth="1"/>
+    <col min="8" max="12" width="9.109375" customWidth="1"/>
+    <col min="13" max="13" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="13" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1141,59 +2069,80 @@
       <c r="B2">
         <v>8471675</v>
       </c>
-      <c r="C2" t="s">
-        <v>52</v>
-      </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I2" t="s">
-        <v>49</v>
-      </c>
-      <c r="J2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K2" t="s">
-        <v>53</v>
+        <v>153</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>154</v>
       </c>
       <c r="M2" t="s">
-        <v>51</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B3">
         <v>8478402</v>
       </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" t="s">
+        <v>153</v>
+      </c>
+      <c r="L3" t="s">
+        <v>154</v>
+      </c>
+      <c r="M3" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="B4">
         <v>8479318</v>
       </c>
+      <c r="D4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" t="s">
+        <v>156</v>
+      </c>
+      <c r="L4" t="s">
+        <v>154</v>
+      </c>
+      <c r="M4" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="B5">
         <v>8477492</v>
@@ -1201,7 +2150,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="B6">
         <v>8477934</v>
@@ -1217,7 +2166,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="B8">
         <v>8470638</v>
@@ -1225,7 +2174,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="B9">
         <v>8474141</v>
@@ -1233,7 +2182,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="B10">
         <v>8477956</v>
@@ -1241,7 +2190,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="B11">
         <v>8475167</v>
@@ -1249,7 +2198,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="B12">
         <v>8475166</v>
@@ -1257,7 +2206,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="B13">
         <v>8479339</v>
@@ -1265,7 +2214,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>109</v>
       </c>
       <c r="B14">
         <v>8474564</v>
@@ -1273,7 +2222,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>113</v>
       </c>
       <c r="B15">
         <v>8478403</v>
@@ -1281,7 +2230,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>119</v>
       </c>
       <c r="B16">
         <v>8474600</v>
@@ -1289,7 +2238,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>125</v>
       </c>
       <c r="B17">
         <v>8478010</v>
@@ -1297,7 +2246,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>130</v>
       </c>
       <c r="B18">
         <v>8473419</v>
@@ -1305,7 +2254,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>134</v>
       </c>
       <c r="B19">
         <v>8471695</v>
@@ -1313,7 +2262,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>141</v>
       </c>
       <c r="B20">
         <v>8476945</v>
@@ -1321,7 +2270,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>149</v>
       </c>
       <c r="B21">
         <v>8475158</v>
